--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\world\Github\FYP-ML-Optimization-of-CZTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FYP-ML-Optimization-of-CZTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E872CF-9ACA-47D0-A4F8-DCEF05845AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C2A1F-72A5-4C3D-9277-D0611BC6F071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20625" yWindow="4455" windowWidth="20760" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,22 +233,6 @@
   <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -347,25 +331,41 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -382,22 +382,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3012EA0F-0DFB-4BC3-857D-15D8F52B35A4}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3012EA0F-0DFB-4BC3-857D-15D8F52B35A4}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E23" xr:uid="{3012EA0F-0DFB-4BC3-857D-15D8F52B35A4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7D82B7DC-5E53-4F6C-A2FD-E110B3BC01EB}" name="Cu" dataDxfId="6">
-      <calculatedColumnFormula>RANDBETWEEN(20,40)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{2074315E-44BC-4E5B-859C-44D232D6AA70}" name="Zn" dataDxfId="5">
-      <calculatedColumnFormula>RANDBETWEEN(20,30)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{99A7201D-6508-4F97-AB3A-19D1C17643C7}" name="Ti" dataDxfId="4">
-      <calculatedColumnFormula>RANDBETWEEN(20,30)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{7B4FBC0E-DFFF-4A26-A797-73EDAA344653}" name="S" dataDxfId="3">
-      <calculatedColumnFormula>100-SUM(A2:C2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{0237E2B5-C5B9-4FA7-A6F8-9830B46E939A}" name="Efficiency" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{7D82B7DC-5E53-4F6C-A2FD-E110B3BC01EB}" name="Cu" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2074315E-44BC-4E5B-859C-44D232D6AA70}" name="Zn" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{99A7201D-6508-4F97-AB3A-19D1C17643C7}" name="Ti" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7B4FBC0E-DFFF-4A26-A797-73EDAA344653}" name="S" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0237E2B5-C5B9-4FA7-A6F8-9830B46E939A}" name="Efficiency" dataDxfId="0">
       <calculatedColumnFormula>RANDBETWEEN(50,95)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -668,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +671,7 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -696,491 +688,674 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <f ca="1">100-SUM(A2:C2)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">RANDBETWEEN(50,95)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A23" ca="1" si="0">RANDBETWEEN(20,40)</f>
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E23" ca="1" si="0">RANDBETWEEN(50,95)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <v>21</v>
+      </c>
+      <c r="O6">
+        <v>21</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>23</v>
+      </c>
+      <c r="O8">
+        <v>21</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>23</v>
+      </c>
+      <c r="O9">
+        <v>22</v>
+      </c>
+      <c r="P9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>23</v>
+      </c>
+      <c r="O10">
+        <v>23</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>24</v>
+      </c>
+      <c r="P12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="M14">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M15">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="M17">
+        <v>33</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <v>27</v>
+      </c>
+      <c r="P18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>26</v>
+      </c>
+      <c r="O19">
+        <v>27</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <v>27</v>
+      </c>
+      <c r="P20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M21">
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>28</v>
+      </c>
+      <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>28</v>
+      </c>
+      <c r="O22">
+        <v>28</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>39</v>
+      </c>
+      <c r="B23" s="8">
+        <v>29</v>
+      </c>
+      <c r="C23" s="8">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8">
         <v>35</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:C23" ca="1" si="1">RANDBETWEEN(20,30)</f>
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D23" ca="1" si="2">100-SUM(A3:C3)</f>
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E23" ca="1" si="3">RANDBETWEEN(50,95)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E23" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="M23">
+        <v>38</v>
+      </c>
+      <c r="N23">
+        <v>28</v>
+      </c>
+      <c r="O23">
+        <v>28</v>
+      </c>
+      <c r="P23">
         <v>32</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ca="1" si="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>38</v>
+      </c>
+      <c r="N24">
+        <v>28</v>
+      </c>
+      <c r="O24">
         <v>29</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>29</v>
+      </c>
+      <c r="O25">
+        <v>30</v>
+      </c>
+      <c r="P25">
         <v>35</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B23" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P4:P27">
+    <sortCondition ref="P4:P27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FYP-ML-Optimization-of-CZTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C2A1F-72A5-4C3D-9277-D0611BC6F071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98FCA12-A1A4-4EE0-ADE9-2785DFCF1AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M4" sqref="M4:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,7 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>20</v>
       </c>
@@ -703,10 +703,10 @@
       </c>
       <c r="E2" s="3">
         <f ca="1">RANDBETWEEN(50,95)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>23</v>
       </c>
@@ -721,10 +721,10 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E23" ca="1" si="0">RANDBETWEEN(50,95)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>23</v>
       </c>
@@ -739,22 +739,10 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>20</v>
-      </c>
-      <c r="O4">
-        <v>20</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>24</v>
       </c>
@@ -769,22 +757,10 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>21</v>
-      </c>
-      <c r="O5">
-        <v>20</v>
-      </c>
-      <c r="P5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>25</v>
       </c>
@@ -799,22 +775,10 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="M6">
-        <v>23</v>
-      </c>
-      <c r="N6">
-        <v>21</v>
-      </c>
-      <c r="O6">
-        <v>21</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>25</v>
       </c>
@@ -829,22 +793,10 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>22</v>
-      </c>
-      <c r="O7">
-        <v>21</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>27</v>
       </c>
@@ -859,22 +811,10 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="M8">
-        <v>25</v>
-      </c>
-      <c r="N8">
-        <v>23</v>
-      </c>
-      <c r="O8">
-        <v>21</v>
-      </c>
-      <c r="P8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>30</v>
       </c>
@@ -889,22 +829,10 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="M9">
-        <v>25</v>
-      </c>
-      <c r="N9">
-        <v>23</v>
-      </c>
-      <c r="O9">
-        <v>22</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>30</v>
       </c>
@@ -919,22 +847,10 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>23</v>
-      </c>
-      <c r="O10">
-        <v>23</v>
-      </c>
-      <c r="P10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>31</v>
       </c>
@@ -949,22 +865,10 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
-      <c r="N11">
-        <v>24</v>
-      </c>
-      <c r="O11">
-        <v>23</v>
-      </c>
-      <c r="P11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>31</v>
       </c>
@@ -979,22 +883,10 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="M12">
-        <v>30</v>
-      </c>
-      <c r="N12">
-        <v>24</v>
-      </c>
-      <c r="O12">
-        <v>24</v>
-      </c>
-      <c r="P12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>31</v>
       </c>
@@ -1009,22 +901,10 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="M13">
-        <v>31</v>
-      </c>
-      <c r="N13">
-        <v>25</v>
-      </c>
-      <c r="O13">
-        <v>25</v>
-      </c>
-      <c r="P13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>33</v>
       </c>
@@ -1039,22 +919,10 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="M14">
-        <v>31</v>
-      </c>
-      <c r="N14">
-        <v>25</v>
-      </c>
-      <c r="O14">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>33</v>
       </c>
@@ -1069,22 +937,10 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="M15">
-        <v>31</v>
-      </c>
-      <c r="N15">
-        <v>25</v>
-      </c>
-      <c r="O15">
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>34</v>
       </c>
@@ -1099,22 +955,10 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="M16">
-        <v>33</v>
-      </c>
-      <c r="N16">
-        <v>25</v>
-      </c>
-      <c r="O16">
-        <v>25</v>
-      </c>
-      <c r="P16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>34</v>
       </c>
@@ -1129,22 +973,10 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="M17">
-        <v>33</v>
-      </c>
-      <c r="N17">
-        <v>25</v>
-      </c>
-      <c r="O17">
-        <v>26</v>
-      </c>
-      <c r="P17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>34</v>
       </c>
@@ -1159,22 +991,10 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="M18">
-        <v>34</v>
-      </c>
-      <c r="N18">
-        <v>25</v>
-      </c>
-      <c r="O18">
-        <v>27</v>
-      </c>
-      <c r="P18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>36</v>
       </c>
@@ -1191,20 +1011,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>76</v>
       </c>
-      <c r="M19">
-        <v>34</v>
-      </c>
-      <c r="N19">
-        <v>26</v>
-      </c>
-      <c r="O19">
-        <v>27</v>
-      </c>
-      <c r="P19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>36</v>
       </c>
@@ -1219,22 +1027,10 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="M20">
-        <v>34</v>
-      </c>
-      <c r="N20">
-        <v>28</v>
-      </c>
-      <c r="O20">
-        <v>27</v>
-      </c>
-      <c r="P20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>38</v>
       </c>
@@ -1249,22 +1045,10 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="M21">
-        <v>36</v>
-      </c>
-      <c r="N21">
-        <v>28</v>
-      </c>
-      <c r="O21">
-        <v>28</v>
-      </c>
-      <c r="P21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>38</v>
       </c>
@@ -1279,22 +1063,10 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="M22">
-        <v>36</v>
-      </c>
-      <c r="N22">
-        <v>28</v>
-      </c>
-      <c r="O22">
-        <v>28</v>
-      </c>
-      <c r="P22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>39</v>
       </c>
@@ -1309,47 +1081,7 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="M23">
-        <v>38</v>
-      </c>
-      <c r="N23">
-        <v>28</v>
-      </c>
-      <c r="O23">
-        <v>28</v>
-      </c>
-      <c r="P23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M24">
-        <v>38</v>
-      </c>
-      <c r="N24">
-        <v>28</v>
-      </c>
-      <c r="O24">
-        <v>29</v>
-      </c>
-      <c r="P24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M25">
-        <v>39</v>
-      </c>
-      <c r="N25">
-        <v>29</v>
-      </c>
-      <c r="O25">
-        <v>30</v>
-      </c>
-      <c r="P25">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FYP-ML-Optimization-of-CZTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98FCA12-A1A4-4EE0-ADE9-2785DFCF1AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CABA81-9464-4145-ABC4-7E6BD1712244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,12 +232,15 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -254,9 +257,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -384,14 +385,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3012EA0F-0DFB-4BC3-857D-15D8F52B35A4}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E23" xr:uid="{3012EA0F-0DFB-4BC3-857D-15D8F52B35A4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+    <sortCondition descending="1" ref="B2:B23"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7D82B7DC-5E53-4F6C-A2FD-E110B3BC01EB}" name="Cu" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2074315E-44BC-4E5B-859C-44D232D6AA70}" name="Zn" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{99A7201D-6508-4F97-AB3A-19D1C17643C7}" name="Ti" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{7B4FBC0E-DFFF-4A26-A797-73EDAA344653}" name="S" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0237E2B5-C5B9-4FA7-A6F8-9830B46E939A}" name="Efficiency" dataDxfId="0">
-      <calculatedColumnFormula>RANDBETWEEN(50,95)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{7B4FBC0E-DFFF-4A26-A797-73EDAA344653}" name="S" dataDxfId="0">
+      <calculatedColumnFormula>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="5" xr3:uid="{0237E2B5-C5B9-4FA7-A6F8-9830B46E939A}" name="Efficiency" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -663,7 +667,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:P25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,164 +694,164 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <v>6</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
-        <f ca="1">RANDBETWEEN(50,95)</f>
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
         <v>20</v>
       </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E23" ca="1" si="0">RANDBETWEEN(50,95)</f>
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>30</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
         <v>27</v>
       </c>
-      <c r="B8" s="1">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23</v>
-      </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>17</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
         <v>24</v>
       </c>
-      <c r="C10" s="1">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>17</v>
-      </c>
       <c r="E10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,16 +865,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="1">
-        <v>18</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>19</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>25</v>
@@ -879,215 +883,212 @@
         <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>21</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>17</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>21</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>16</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1">
         <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>21</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>14</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
-        <v>22</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
         <v>22</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
         <v>27</v>
       </c>
-      <c r="D17" s="1">
-        <v>22</v>
-      </c>
       <c r="E17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
-        <v>23</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>30</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
-        <v>25</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>27</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>28</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>19</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>32</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>36</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>32</v>
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
+        <v>12</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B23" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <f>100-Table1[[#This Row],[Cu]]-Table1[[#This Row],[Zn]]-Table1[[#This Row],[Ti]]</f>
         <v>35</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P4:P27">
-    <sortCondition ref="P4:P27"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
